--- a/revision/Fig7 Extension/results.xlsx
+++ b/revision/Fig7 Extension/results.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="low_pref" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t xml:space="preserve">a0</t>
   </si>
   <si>
     <t xml:space="preserve">DLP UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD_UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD_ke_UB</t>
   </si>
 </sst>
 </file>
@@ -42,6 +48,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,8 +108,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,60 +244,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>112.95367524</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>104.93872714</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>112.45280583</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>91.92517454</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>85.49158616</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>91.43151509</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>73.02579083</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>67.92656574</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>72.53302086</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>56.4348707</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>52.5796962</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>55.93861451</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>42.08496815</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>39.5685709</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>41.58256801</v>
       </c>
     </row>
   </sheetData>
@@ -301,60 +352,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>113.09263258</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>105.02997902</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>112.59094072</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>92.20278758</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>85.65843449</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>91.70791975</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>73.46722535</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>68.19303368</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>72.97306249</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>57.04390619</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>52.94893867</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>56.54619408</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>42.85040635</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>40.01931612</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>42.34663004</v>
       </c>
     </row>
   </sheetData>
@@ -373,60 +460,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>113.22268018</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>105.11266313</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>112.72006139</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>92.44208326</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>85.79040381</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>91.94575167</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>73.80222984</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>68.36123863</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>73.30600337</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>57.40299145</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>53.08150537</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>56.90221485</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>43.19077187</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>40.06259617</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>42.68273675</v>
       </c>
     </row>
   </sheetData>

--- a/revision/Fig7 Extension/results.xlsx
+++ b/revision/Fig7 Extension/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="low_pref" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t xml:space="preserve">a0</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t xml:space="preserve">SBD_ke_UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLP_UB_wo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD_UB_wo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD_ke_UB_wo3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD_ke_UB_wo3</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -118,6 +130,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,11 +275,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,11 +298,20 @@
       <c r="B2" s="1" t="n">
         <v>112.95367524</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <v>104.93872714</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>112.45280583</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>111.34324253</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>104.07634983</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>111.37088988</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,11 +321,20 @@
       <c r="B3" s="1" t="n">
         <v>91.92517454</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <v>85.49158616</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>91.43151509</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>87.76834832</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>83.80087693</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>89.1895415</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,11 +344,20 @@
       <c r="B4" s="1" t="n">
         <v>73.02579083</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>67.92656574</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>72.53302086</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>66.59438619</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>65.01139313</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>68.82581808</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,11 +367,20 @@
       <c r="B5" s="1" t="n">
         <v>56.4348707</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>52.5796962</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>55.93861451</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>48.78258315</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>48.32303514</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>50.61721616</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,11 +390,20 @@
       <c r="B6" s="1" t="n">
         <v>42.08496815</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>39.5685709</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>41.58256801</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>34.45030797</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>34.36326519</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>34.63229675</v>
       </c>
     </row>
   </sheetData>
@@ -352,10 +422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,11 +437,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,11 +460,20 @@
       <c r="B2" s="1" t="n">
         <v>113.09263258</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <v>105.02997902</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>112.59094072</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>111.34324253</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>104.07634984</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>111.43693516</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,11 +483,20 @@
       <c r="B3" s="1" t="n">
         <v>92.20278758</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <v>85.65843449</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>91.70791975</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>87.76834832</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>83.80087694</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>89.36512129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,11 +506,20 @@
       <c r="B4" s="1" t="n">
         <v>73.46722535</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>68.19303368</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>72.97306249</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>66.59438619</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>65.01139323</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>69.1486809</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,11 +529,20 @@
       <c r="B5" s="1" t="n">
         <v>57.04390619</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>52.94893867</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>56.54619408</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>48.78258315</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>48.32303514</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>51.10157484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,11 +552,20 @@
       <c r="B6" s="1" t="n">
         <v>42.85040635</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>40.01931612</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>42.34663004</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>34.45030797</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>34.36326513</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>35.27676943</v>
       </c>
     </row>
   </sheetData>
@@ -460,13 +584,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.42"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -475,11 +604,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,11 +627,20 @@
       <c r="B2" s="1" t="n">
         <v>113.22268018</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <v>105.11266313</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>112.72006139</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>111.3230302</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>104.05873214</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>111.4902376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,11 +650,20 @@
       <c r="B3" s="1" t="n">
         <v>92.44208326</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <v>85.79040381</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>91.94575167</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>87.70596191</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>83.74762014</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>89.49540139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,11 +673,20 @@
       <c r="B4" s="1" t="n">
         <v>73.80222984</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>68.36123863</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>73.30600337</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>66.44265035</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>64.87341105</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>69.34676767</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,11 +696,20 @@
       <c r="B5" s="1" t="n">
         <v>57.40299145</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>53.08150537</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>56.90221485</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>48.44213</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>47.99714238</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>51.28650834</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,11 +719,20 @@
       <c r="B6" s="1" t="n">
         <v>43.19077187</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>40.06259617</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>42.68273675</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>33.8813791</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>33.80197865</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>35.39580869</v>
       </c>
     </row>
   </sheetData>
